--- a/REGULAR/CENRO/RODRIQUEZ, RUEL.xlsx
+++ b/REGULAR/CENRO/RODRIQUEZ, RUEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="192">
   <si>
     <t>PERIOD</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>UT(1-1-42)</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>11/14-17/2023</t>
   </si>
 </sst>
 </file>
@@ -1642,9 +1648,9 @@
   <dimension ref="A2:K443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A371" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A380" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E385" sqref="E385"/>
+      <selection pane="bottomLeft" activeCell="K400" sqref="K400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1809,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>153.68599999999998</v>
+        <v>157.43599999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1813,7 +1819,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>203.458</v>
+        <v>203.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10222,13 +10228,15 @@
         <v>45139</v>
       </c>
       <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
@@ -10240,13 +10248,15 @@
         <v>45170</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
@@ -10258,13 +10268,15 @@
         <v>45200</v>
       </c>
       <c r="B399" s="20"/>
-      <c r="C399" s="13"/>
+      <c r="C399" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G399" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
@@ -10275,7 +10287,9 @@
       <c r="A400" s="40">
         <v>45231</v>
       </c>
-      <c r="B400" s="20"/>
+      <c r="B400" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
@@ -10284,10 +10298,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H400" s="39"/>
+      <c r="H400" s="39">
+        <v>4</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="20" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
